--- a/v0.1/v0.1.xlsx
+++ b/v0.1/v0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\yaoisss\GraduationThesis\符书\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\yaoisss\GraduationThesis\Harmbook-Project-Documents\v0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B697112-4B2C-4A37-9A45-16BF1430D722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B58307-4A30-4BEB-BA8C-4C079787B199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总功能（未区分）" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="251">
   <si>
     <t>用户能够自行注册、登录、修改密码</t>
   </si>
@@ -754,22 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户前端页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户后端页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理UI页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置UI页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一级平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,6 +775,38 @@
   </si>
   <si>
     <t>登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块与页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理后台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +871,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -864,7 +897,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1070,11 +1103,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,6 +1188,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,6 +1231,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2413,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBABBCF-57DD-4B35-873B-14DDA8066F81}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -2444,14 +2538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2700,92 +2794,92 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="21" t="s">
         <v>232</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="20"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="22" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="24" t="s">
         <v>233</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="20"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2793,8 +2887,8 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="23"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8660,378 +8754,445 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811AFA9B-BA40-4829-BD75-FFE79177090E}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
+      <c r="C21" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A46"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B20:B46"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="C30:C46"/>
+  <mergeCells count="9">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A47"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B47"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C31:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/v0.1/v0.1.xlsx
+++ b/v0.1/v0.1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\yaoisss\GraduationThesis\Harmbook-Project-Documents\v0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA9BE7E-A6BE-481B-9E80-FF358D3912E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC1C4E-606F-49D0-ACCB-EBF3792C90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总功能（未区分）" sheetId="1" r:id="rId1"/>
     <sheet name="概念图" sheetId="4" r:id="rId2"/>
     <sheet name="用户功能设计" sheetId="2" r:id="rId3"/>
     <sheet name="平台页面" sheetId="3" r:id="rId4"/>
+    <sheet name="运维用户功能模块" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="589">
   <si>
     <t>用户能够自行注册、登录、修改密码</t>
   </si>
@@ -2155,6 +2156,10 @@
   </si>
   <si>
     <t xml:space="preserve">入侵告警处理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维用户功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2162,7 +2167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2212,14 +2217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2518,7 +2515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2580,6 +2577,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2592,52 +2592,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3913,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116330A-9895-45A1-A11A-84BBAB8CF7A6}">
   <dimension ref="A1:G827"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3927,7 +3915,7 @@
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>224</v>
       </c>
@@ -3937,7 +3925,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3945,7 +3933,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>228</v>
       </c>
@@ -3956,10 +3944,17 @@
         <v>112</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>344</v>
@@ -3968,10 +3963,13 @@
         <v>345</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="15" t="s">
         <v>276</v>
@@ -3980,10 +3978,13 @@
         <v>346</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="15" t="s">
         <v>275</v>
@@ -3992,10 +3993,13 @@
         <v>347</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="20"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="15" t="s">
         <v>277</v>
@@ -4004,10 +4008,13 @@
         <v>348</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="20"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>278</v>
@@ -4016,10 +4023,13 @@
         <v>349</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="20"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
         <v>279</v>
@@ -4028,10 +4038,13 @@
         <v>362</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="20"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>274</v>
@@ -4040,10 +4053,13 @@
         <v>350</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="E10" s="20"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>225</v>
       </c>
@@ -4054,10 +4070,13 @@
         <v>112</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>280</v>
@@ -4066,10 +4085,15 @@
         <v>351</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="20"/>
+      <c r="F12" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>423</v>
@@ -4078,10 +4102,13 @@
         <v>424</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="20"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>281</v>
@@ -4090,10 +4117,13 @@
         <v>352</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="20"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>353</v>
@@ -4102,10 +4132,13 @@
         <v>354</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="20"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="15" t="s">
         <v>285</v>
@@ -4114,8 +4147,11 @@
         <v>285</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="7" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -4889,7 +4925,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
         <v>316</v>
@@ -4901,128 +4937,52 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
-      <c r="E83" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="7" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
@@ -10875,9 +10835,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E83:E96"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="E3:E16"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="F12:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10889,8 +10849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811AFA9B-BA40-4829-BD75-FFE79177090E}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10937,13 +10897,13 @@
       <c r="A3" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>242</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -10955,9 +10915,9 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="2" t="s">
         <v>243</v>
       </c>
@@ -10967,8 +10927,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="30"/>
       <c r="E5" s="2" t="s">
         <v>250</v>
@@ -10979,9 +10939,9 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="27" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -10993,9 +10953,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="2" t="s">
         <v>251</v>
       </c>
@@ -11005,9 +10965,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="27" t="s">
         <v>256</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -11019,9 +10979,9 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="2" t="s">
         <v>257</v>
       </c>
@@ -11031,9 +10991,9 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="2" t="s">
         <v>258</v>
       </c>
@@ -11043,9 +11003,9 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="2" t="s">
         <v>260</v>
       </c>
@@ -11055,9 +11015,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="2" t="s">
         <v>458</v>
       </c>
@@ -11067,9 +11027,9 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="2" t="s">
         <v>262</v>
       </c>
@@ -11079,9 +11039,9 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="2" t="s">
         <v>261</v>
       </c>
@@ -11091,9 +11051,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="27" t="s">
         <v>270</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -11105,9 +11065,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="2" t="s">
         <v>271</v>
       </c>
@@ -11117,9 +11077,9 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="26" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="28" t="s">
         <v>434</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -11131,9 +11091,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="2" t="s">
         <v>438</v>
       </c>
@@ -11143,9 +11103,9 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="2" t="s">
         <v>436</v>
       </c>
@@ -11155,9 +11115,9 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="26" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="28" t="s">
         <v>268</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -11169,9 +11129,9 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="2" t="s">
         <v>513</v>
       </c>
@@ -11181,9 +11141,9 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="2" t="s">
         <v>269</v>
       </c>
@@ -11193,9 +11153,9 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="25" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="27" t="s">
         <v>263</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -11207,9 +11167,9 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="2" t="s">
         <v>264</v>
       </c>
@@ -11219,9 +11179,9 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="26" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="28" t="s">
         <v>435</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -11233,9 +11193,9 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="2" t="s">
         <v>440</v>
       </c>
@@ -11245,9 +11205,9 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="2" t="s">
         <v>521</v>
       </c>
@@ -11257,9 +11217,9 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="2" t="s">
         <v>441</v>
       </c>
@@ -11269,9 +11229,9 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="2" t="s">
         <v>442</v>
       </c>
@@ -11281,9 +11241,9 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="26" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="28" t="s">
         <v>444</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -11295,9 +11255,9 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="2" t="s">
         <v>525</v>
       </c>
@@ -11307,9 +11267,9 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="2" t="s">
         <v>446</v>
       </c>
@@ -11319,9 +11279,9 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="25" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="27" t="s">
         <v>266</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -11333,9 +11293,9 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="2" t="s">
         <v>253</v>
       </c>
@@ -11345,9 +11305,9 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="2" t="s">
         <v>254</v>
       </c>
@@ -11357,9 +11317,9 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="2" t="s">
         <v>526</v>
       </c>
@@ -11369,9 +11329,9 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="2" t="s">
         <v>267</v>
       </c>
@@ -11381,9 +11341,9 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="2" t="s">
         <v>255</v>
       </c>
@@ -11393,11 +11353,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="27" t="s">
         <v>431</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -11409,9 +11369,9 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="2" t="s">
         <v>452</v>
       </c>
@@ -11421,9 +11381,9 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="2" t="s">
         <v>451</v>
       </c>
@@ -11433,9 +11393,9 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="2" t="s">
         <v>448</v>
       </c>
@@ -11445,9 +11405,9 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="25" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="27" t="s">
         <v>432</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -11459,9 +11419,9 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="2" t="s">
         <v>453</v>
       </c>
@@ -11471,9 +11431,9 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="2" t="s">
         <v>461</v>
       </c>
@@ -11483,9 +11443,9 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="2" t="s">
         <v>540</v>
       </c>
@@ -11495,9 +11455,9 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="2" t="s">
         <v>324</v>
       </c>
@@ -11507,9 +11467,9 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="26"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="2" t="s">
         <v>462</v>
       </c>
@@ -11519,9 +11479,9 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="2" t="s">
         <v>450</v>
       </c>
@@ -11531,9 +11491,9 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="25" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="27" t="s">
         <v>433</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -11545,9 +11505,9 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="2" t="s">
         <v>457</v>
       </c>
@@ -11557,9 +11517,9 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="2" t="s">
         <v>456</v>
       </c>
@@ -11569,9 +11529,9 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="26"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="2" t="s">
         <v>460</v>
       </c>
@@ -11581,9 +11541,9 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="2" t="s">
         <v>459</v>
       </c>
@@ -11593,9 +11553,9 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="2" t="s">
         <v>455</v>
       </c>
@@ -11605,9 +11565,9 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="26" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="28" t="s">
         <v>553</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -11619,9 +11579,9 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="2" t="s">
         <v>464</v>
       </c>
@@ -11631,13 +11591,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="27" t="s">
         <v>465</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -11649,9 +11609,9 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="26"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="2" t="s">
         <v>475</v>
       </c>
@@ -11661,9 +11621,9 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="26"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="2" t="s">
         <v>480</v>
       </c>
@@ -11673,9 +11633,9 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="27"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="2" t="s">
         <v>469</v>
       </c>
@@ -11685,9 +11645,9 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="25" t="s">
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="27" t="s">
         <v>466</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -11699,9 +11659,9 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="26"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="2" t="s">
         <v>482</v>
       </c>
@@ -11711,9 +11671,9 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="2" t="s">
         <v>479</v>
       </c>
@@ -11723,9 +11683,9 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="25" t="s">
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="27" t="s">
         <v>467</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -11737,9 +11697,9 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="26"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="2" t="s">
         <v>477</v>
       </c>
@@ -11749,9 +11709,9 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="2" t="s">
         <v>456</v>
       </c>
@@ -11761,9 +11721,9 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="2" t="s">
         <v>499</v>
       </c>
@@ -11773,9 +11733,9 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="26"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="2" t="s">
         <v>473</v>
       </c>
@@ -11785,9 +11745,9 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="26"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="2" t="s">
         <v>514</v>
       </c>
@@ -11797,9 +11757,9 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="2" t="s">
         <v>570</v>
       </c>
@@ -11809,9 +11769,9 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="26"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="2" t="s">
         <v>472</v>
       </c>
@@ -11821,9 +11781,9 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="26"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="2" t="s">
         <v>501</v>
       </c>
@@ -11833,9 +11793,9 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="2" t="s">
         <v>476</v>
       </c>
@@ -11845,9 +11805,9 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="26"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="2" t="s">
         <v>471</v>
       </c>
@@ -11857,9 +11817,9 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="26"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="2" t="s">
         <v>481</v>
       </c>
@@ -11869,9 +11829,9 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="26"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="2" t="s">
         <v>484</v>
       </c>
@@ -11881,9 +11841,9 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="26"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="2" t="s">
         <v>483</v>
       </c>
@@ -11893,9 +11853,9 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="34"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="27"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="2" t="s">
         <v>470</v>
       </c>
@@ -11905,11 +11865,11 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35" t="s">
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="27" t="s">
         <v>485</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -11921,9 +11881,9 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="26"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="2" t="s">
         <v>495</v>
       </c>
@@ -11933,9 +11893,9 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="26"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="28"/>
       <c r="E82" s="2" t="s">
         <v>489</v>
       </c>
@@ -11945,9 +11905,9 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="26"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="2" t="s">
         <v>491</v>
       </c>
@@ -11957,9 +11917,9 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="27"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="2" t="s">
         <v>488</v>
       </c>
@@ -11969,9 +11929,9 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="25" t="s">
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -11983,9 +11943,9 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="26"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="2" t="s">
         <v>493</v>
       </c>
@@ -11995,9 +11955,9 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="26"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="2" t="s">
         <v>494</v>
       </c>
@@ -12006,10 +11966,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="40"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6" t="s">
         <v>492</v>
       </c>
@@ -12051,4 +12011,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B0144-2F71-461A-8297-14A0E5DF4556}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>